--- a/data/working-experience_eng_S.xlsx
+++ b/data/working-experience_eng_S.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DD7B69-C9B6-4E5F-8D67-8698212A627E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBF6A1-6D06-4720-B03A-1F255A088F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>what</t>
   </si>
@@ -34,19 +34,31 @@
     <t>where</t>
   </si>
   <si>
+    <t>External Scientific Consultant</t>
+  </si>
+  <si>
+    <t>Sep. - Oct. 2022</t>
+  </si>
+  <si>
+    <t>\href{https://www.redpapaz.org/}{ONG RedPapaz}</t>
+  </si>
+  <si>
+    <t>Bogotá, Colombia</t>
+  </si>
+  <si>
+    <t>International Scientific Consultant</t>
+  </si>
+  <si>
+    <t>Jul. - Aug. 2021</t>
+  </si>
+  <si>
+    <t>\href{https://www.suojellaanlapsia.fi/en}{Protect Children}</t>
+  </si>
+  <si>
+    <t>Helsink, Finlandia</t>
+  </si>
+  <si>
     <t>why</t>
-  </si>
-  <si>
-    <t>Bogota, Colombia</t>
-  </si>
-  <si>
-    <t>Associate Professor</t>
-  </si>
-  <si>
-    <t>Jan. 2015 - Present</t>
-  </si>
-  <si>
-    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
   </si>
 </sst>
 </file>
@@ -364,19 +376,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="108.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -393,21 +404,35 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
